--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiyu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2401C63-D3C6-433D-914D-F9306D722C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BBF051-7D0E-488C-8BE2-997B2B8458DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Passager Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Airline Reference </t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Conformation Code</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F1" sqref="A1:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -536,45 +536,45 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>40</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>0.39930555555555558</v>
@@ -587,19 +587,19 @@
         <v>0.13541666666666663</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
       <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
       </c>
       <c r="K2">
         <v>10456</v>
@@ -609,21 +609,21 @@
         <v>1045.6000000000001</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2">
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>0.42708333333333331</v>
@@ -636,19 +636,19 @@
         <v>0.21527777777777773</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
         <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
       </c>
       <c r="K3">
         <v>13653</v>
@@ -658,21 +658,21 @@
         <v>1365.3000000000002</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>0.44097222222222227</v>
@@ -685,19 +685,19 @@
         <v>0.2048611111111111</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>12567</v>
@@ -707,21 +707,21 @@
         <v>1256.7</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>25</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>0.54513888888888895</v>
@@ -734,19 +734,19 @@
         <v>0.14583333333333326</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
         <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
       </c>
       <c r="K5">
         <v>20463</v>
@@ -756,21 +756,21 @@
         <v>2046.3000000000002</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2">
         <v>0.66666666666666663</v>
@@ -783,19 +783,19 @@
         <v>3.125E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>5432</v>
@@ -805,13 +805,13 @@
         <v>543.20000000000005</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6">
         <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
